--- a/sales/protected/commands/template/readexcel.xlsx
+++ b/sales/protected/commands/template/readexcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="15360" windowHeight="10830"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -119,13 +119,13 @@
     <t>每月销售龙虎榜城市人均签单量排名</t>
   </si>
   <si>
+    <t>排名18</t>
+  </si>
+  <si>
+    <t>扣2000</t>
+  </si>
+  <si>
     <t>排名19</t>
-  </si>
-  <si>
-    <t>扣2000</t>
-  </si>
-  <si>
-    <t>排名20</t>
   </si>
   <si>
     <t>扣3000</t>
@@ -445,8 +445,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -528,7 +528,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -542,21 +564,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -565,14 +572,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -580,6 +587,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,33 +616,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -649,6 +649,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -662,14 +670,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -686,6 +686,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -710,7 +740,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -722,13 +758,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -740,31 +824,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -776,97 +854,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,6 +925,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -958,15 +967,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -978,6 +978,17 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -996,17 +1007,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1015,55 +1015,55 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1072,88 +1072,88 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1563,8 +1563,8 @@
   <sheetPr/>
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/sales/protected/commands/template/readexcel.xlsx
+++ b/sales/protected/commands/template/readexcel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="21600" windowHeight="9840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="82">
   <si>
     <t>销售段位得分规则</t>
   </si>
@@ -74,10 +74,10 @@
 - 年金额 * 0.12 * (1+0.01*（(A)-1）) = 得分  </t>
   </si>
   <si>
-    <t>销售每月飘盈香签单单数 (B)</t>
-  </si>
-  <si>
-    <t>销售每月飘盈香签单金额</t>
+    <t>销售每月飘盈香/净化机器租赁/隔油池签单单数 (B)</t>
+  </si>
+  <si>
+    <t>销售每月飘盈香/净化机器租赁/隔油池签单金额</t>
   </si>
   <si>
     <t xml:space="preserve">年金额 </t>
@@ -267,175 +267,6 @@
   </si>
   <si>
     <t>得分 * 0.85</t>
-  </si>
-  <si>
-    <t>当月所有战斗值乘以倍数后</t>
-  </si>
-  <si>
-    <t>当月所有战斗值*以上所有倍数，得到今月战斗值</t>
-  </si>
-  <si>
-    <t>段位战斗值要求及新赛季继承段位和继承战斗值规则如下：
-（因段位会每一个赛季清空一次段位，每两月为一个赛季。新赛季的段位和战斗值，取上赛季最终段位对应的新赛季段位和新赛季后战斗值）</t>
-  </si>
-  <si>
-    <t>等级</t>
-  </si>
-  <si>
-    <t>所需要战斗值</t>
-  </si>
-  <si>
-    <t>新赛季继承段位</t>
-  </si>
-  <si>
-    <t>新赛季继承战斗值</t>
-  </si>
-  <si>
-    <t>珍爱1段</t>
-  </si>
-  <si>
-    <t>364000或以上</t>
-  </si>
-  <si>
-    <t>钻石1段</t>
-  </si>
-  <si>
-    <t>珍爱2段</t>
-  </si>
-  <si>
-    <t>329000-363999</t>
-  </si>
-  <si>
-    <t>钻石2段</t>
-  </si>
-  <si>
-    <t>珍爱3段</t>
-  </si>
-  <si>
-    <t>294000-328999</t>
-  </si>
-  <si>
-    <t>钻石3段</t>
-  </si>
-  <si>
-    <t>珍爱4段</t>
-  </si>
-  <si>
-    <t>259000-293999</t>
-  </si>
-  <si>
-    <t>钻石4段</t>
-  </si>
-  <si>
-    <t>珍爱5段</t>
-  </si>
-  <si>
-    <t>224000-258999</t>
-  </si>
-  <si>
-    <t>钻石5段</t>
-  </si>
-  <si>
-    <t>204000-223999</t>
-  </si>
-  <si>
-    <t>铂金1段</t>
-  </si>
-  <si>
-    <t>184000-203999</t>
-  </si>
-  <si>
-    <t>铂金2段</t>
-  </si>
-  <si>
-    <t>164000-183999</t>
-  </si>
-  <si>
-    <t>铂金3段</t>
-  </si>
-  <si>
-    <t>144000-143999</t>
-  </si>
-  <si>
-    <t>铂金4段</t>
-  </si>
-  <si>
-    <t>124000-143999</t>
-  </si>
-  <si>
-    <t>109000-123999</t>
-  </si>
-  <si>
-    <t>黄金1段</t>
-  </si>
-  <si>
-    <t>94000-108999</t>
-  </si>
-  <si>
-    <t>黄金2段</t>
-  </si>
-  <si>
-    <t>79000-93999</t>
-  </si>
-  <si>
-    <t>黄金3段</t>
-  </si>
-  <si>
-    <t>64000-78999</t>
-  </si>
-  <si>
-    <t>黄金4段</t>
-  </si>
-  <si>
-    <t>54000-63999</t>
-  </si>
-  <si>
-    <t>白银1段</t>
-  </si>
-  <si>
-    <t>44000-53999</t>
-  </si>
-  <si>
-    <t>白银2段</t>
-  </si>
-  <si>
-    <t>34000-43999</t>
-  </si>
-  <si>
-    <t>白银3段</t>
-  </si>
-  <si>
-    <t>24000-33999</t>
-  </si>
-  <si>
-    <t>19000-23999</t>
-  </si>
-  <si>
-    <t>青铜1段</t>
-  </si>
-  <si>
-    <t>14000-18999</t>
-  </si>
-  <si>
-    <t>青铜2段</t>
-  </si>
-  <si>
-    <t>9000-13999</t>
-  </si>
-  <si>
-    <t>7000-8999</t>
-  </si>
-  <si>
-    <t>按上赛季多少战斗值就继承多少战斗值</t>
-  </si>
-  <si>
-    <t>5000-6999</t>
-  </si>
-  <si>
-    <t>青铜3段</t>
-  </si>
-  <si>
-    <t>5000以下</t>
   </si>
 </sst>
 </file>
@@ -443,12 +274,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="179" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,85 +288,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
       <sz val="16"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="16"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -548,17 +355,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -571,53 +376,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -631,6 +392,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -640,16 +432,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -663,13 +447,35 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -680,7 +486,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -692,13 +642,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,188 +666,23 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -906,30 +697,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -973,6 +740,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -984,11 +766,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1007,239 +787,220 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1563,27 +1324,28 @@
   <sheetPr/>
   <dimension ref="A1:D96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="2" max="2" width="35.375" customWidth="1"/>
-    <col min="3" max="3" width="47" customWidth="1"/>
-    <col min="4" max="4" width="37.1083333333333" customWidth="1"/>
+    <col min="1" max="1" width="50" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.3833333333333" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47" style="1" customWidth="1"/>
+    <col min="4" max="4" width="37.1083333333333" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.89166666666667" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="20.25" spans="1:1">
+    <row r="1" s="1" customFormat="1" ht="20.25" customHeight="1" spans="1:1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="20.25" spans="1:1">
+    <row r="2" s="1" customFormat="1" ht="20.25" customHeight="1" spans="1:1">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" ht="18" customHeight="1" spans="1:4">
+    <row r="3" s="1" customFormat="1" ht="18" customHeight="1" spans="1:4">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -1610,7 +1372,7 @@
       <c r="B5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="8"/>
@@ -1620,7 +1382,7 @@
       <c r="B6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="17" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="8"/>
@@ -1630,7 +1392,7 @@
       <c r="B7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="17" t="s">
         <v>11</v>
       </c>
       <c r="D7" s="8"/>
@@ -1640,7 +1402,7 @@
       <c r="B8" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D8" s="8"/>
@@ -1651,34 +1413,34 @@
       <c r="C9" s="10"/>
       <c r="D9" s="8"/>
     </row>
-    <row r="10" ht="18" customHeight="1" spans="1:4">
-      <c r="A10" s="11" t="s">
+    <row r="10" s="1" customFormat="1" ht="18" customHeight="1" spans="1:4">
+      <c r="A10" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
     </row>
-    <row r="11" ht="117" customHeight="1" spans="1:4">
-      <c r="A11" s="11" t="s">
+    <row r="11" s="1" customFormat="1" ht="117" customHeight="1" spans="1:4">
+      <c r="A11" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B11" s="7"/>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>16</v>
       </c>
       <c r="D11" s="7"/>
     </row>
-    <row r="12" customFormat="1" ht="19" customHeight="1" spans="1:4">
-      <c r="A12" s="11" t="s">
+    <row r="12" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
+      <c r="A12" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
     </row>
-    <row r="13" customFormat="1" ht="19" customHeight="1" spans="1:4">
-      <c r="A13" s="11" t="s">
+    <row r="13" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
+      <c r="A13" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1689,74 +1451,74 @@
       </c>
       <c r="D13" s="7"/>
     </row>
-    <row r="14" ht="19" customHeight="1" spans="1:4">
-      <c r="A14" s="11" t="s">
+    <row r="14" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
+      <c r="A14" s="7" t="s">
         <v>21</v>
       </c>
       <c r="B14" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D14" s="7"/>
     </row>
-    <row r="15" ht="19" customHeight="1" spans="1:4">
-      <c r="A15" s="13" t="s">
+    <row r="15" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
+      <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="7"/>
     </row>
-    <row r="16" ht="19" customHeight="1" spans="1:4">
-      <c r="A16" s="13" t="s">
+    <row r="16" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
+      <c r="A16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="7" t="s">
         <v>27</v>
       </c>
       <c r="D16" s="7"/>
     </row>
-    <row r="17" ht="19" customHeight="1" spans="1:4">
-      <c r="A17" s="13" t="s">
+    <row r="17" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
+      <c r="A17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="7"/>
     </row>
-    <row r="18" ht="19" customHeight="1" spans="1:4">
-      <c r="A18" s="13" t="s">
+    <row r="18" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
+      <c r="A18" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="7" t="s">
         <v>30</v>
       </c>
       <c r="D18" s="7"/>
     </row>
-    <row r="19" ht="19" customHeight="1" spans="1:4">
-      <c r="A19" s="11"/>
+    <row r="19" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
+      <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
     </row>
-    <row r="20" ht="19" customHeight="1" spans="1:4">
-      <c r="A20" s="11" t="s">
+    <row r="20" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
+      <c r="A20" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" ht="19" customHeight="1" spans="1:4">
-      <c r="A21" s="11"/>
+    <row r="21" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
+      <c r="A21" s="7"/>
       <c r="B21" s="7" t="s">
         <v>32</v>
       </c>
@@ -1765,8 +1527,8 @@
       </c>
       <c r="D21" s="7"/>
     </row>
-    <row r="22" ht="19" customHeight="1" spans="1:4">
-      <c r="A22" s="11"/>
+    <row r="22" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
+      <c r="A22" s="7"/>
       <c r="B22" s="7" t="s">
         <v>34</v>
       </c>
@@ -1775,21 +1537,21 @@
       </c>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" ht="19" customHeight="1" spans="1:4">
-      <c r="A23" s="11"/>
+    <row r="23" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
+      <c r="A23" s="7"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="24" ht="19" customHeight="1" spans="1:4">
-      <c r="A24" s="11" t="s">
+    <row r="24" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
+      <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
     </row>
-    <row r="25" ht="19" customHeight="1" spans="1:4">
+    <row r="25" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A25" s="7"/>
       <c r="B25" s="7" t="s">
         <v>32</v>
@@ -1799,7 +1561,7 @@
       </c>
       <c r="D25" s="7"/>
     </row>
-    <row r="26" ht="19" customHeight="1" spans="1:4">
+    <row r="26" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A26" s="7"/>
       <c r="B26" s="7" t="s">
         <v>34</v>
@@ -1809,103 +1571,103 @@
       </c>
       <c r="D26" s="7"/>
     </row>
-    <row r="27" ht="19" customHeight="1" spans="1:4">
+    <row r="27" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A27" s="7"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
     </row>
-    <row r="28" ht="19" customHeight="1" spans="1:4">
-      <c r="A28" s="11" t="s">
+    <row r="28" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
+      <c r="A28" s="7" t="s">
         <v>37</v>
       </c>
       <c r="B28" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="C28" s="14">
+      <c r="C28" s="12">
         <v>5000</v>
       </c>
       <c r="D28" s="7"/>
     </row>
-    <row r="29" ht="19" customHeight="1" spans="1:4">
+    <row r="29" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A29" s="7"/>
       <c r="B29" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="C29" s="14">
+      <c r="C29" s="12">
         <v>3000</v>
       </c>
       <c r="D29" s="7"/>
     </row>
-    <row r="30" ht="19" customHeight="1" spans="1:4">
+    <row r="30" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A30" s="7"/>
       <c r="B30" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="C30" s="14">
+      <c r="C30" s="12">
         <v>1500</v>
       </c>
       <c r="D30" s="7"/>
     </row>
-    <row r="31" ht="19" customHeight="1" spans="1:4">
+    <row r="31" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A31" s="7"/>
       <c r="B31" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="12">
         <v>500</v>
       </c>
       <c r="D31" s="7"/>
     </row>
-    <row r="32" ht="19" customHeight="1" spans="1:4">
+    <row r="32" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A32" s="7"/>
       <c r="B32" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="14">
+      <c r="C32" s="12">
         <v>300</v>
       </c>
       <c r="D32" s="7"/>
     </row>
-    <row r="33" ht="19" customHeight="1" spans="1:4">
+    <row r="33" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A33" s="7"/>
       <c r="B33" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="C33" s="14">
+      <c r="C33" s="12">
         <v>100</v>
       </c>
       <c r="D33" s="7"/>
     </row>
-    <row r="34" ht="33" customHeight="1" spans="1:4">
+    <row r="34" s="1" customFormat="1" ht="33" customHeight="1" spans="1:4">
       <c r="A34" s="7"/>
       <c r="B34" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="C34" s="14">
+      <c r="C34" s="12">
         <v>-500</v>
       </c>
-      <c r="D34" s="12" t="s">
+      <c r="D34" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" ht="25" customHeight="1" spans="1:4">
-      <c r="A35" s="15" t="s">
+    <row r="35" s="1" customFormat="1" ht="25" customHeight="1" spans="1:4">
+      <c r="A35" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="16"/>
-      <c r="C35" s="17" t="s">
+      <c r="B35" s="14"/>
+      <c r="C35" s="13" t="s">
         <v>47</v>
       </c>
       <c r="D35" s="7"/>
     </row>
-    <row r="36" ht="19" customHeight="1" spans="1:4">
-      <c r="A36" s="18"/>
+    <row r="36" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
+      <c r="A36" s="15"/>
       <c r="B36" s="7"/>
-      <c r="C36" s="19"/>
+      <c r="C36" s="15"/>
       <c r="D36" s="7"/>
     </row>
-    <row r="37" ht="19" customHeight="1" spans="1:4">
+    <row r="37" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A37" s="5" t="s">
         <v>1</v>
       </c>
@@ -1919,7 +1681,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" ht="19" customHeight="1" spans="1:4">
+    <row r="38" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A38" s="7" t="s">
         <v>5</v>
       </c>
@@ -1927,7 +1689,7 @@
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
     </row>
-    <row r="39" ht="19" customHeight="1" spans="1:4">
+    <row r="39" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A39" s="7"/>
       <c r="B39" s="7" t="s">
         <v>6</v>
@@ -1937,7 +1699,7 @@
       </c>
       <c r="D39" s="7"/>
     </row>
-    <row r="40" ht="19" customHeight="1" spans="1:4">
+    <row r="40" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A40" s="7"/>
       <c r="B40" s="7" t="s">
         <v>8</v>
@@ -1947,7 +1709,7 @@
       </c>
       <c r="D40" s="7"/>
     </row>
-    <row r="41" ht="19" customHeight="1" spans="1:4">
+    <row r="41" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A41" s="7"/>
       <c r="B41" s="7" t="s">
         <v>10</v>
@@ -1957,7 +1719,7 @@
       </c>
       <c r="D41" s="7"/>
     </row>
-    <row r="42" ht="19" customHeight="1" spans="1:4">
+    <row r="42" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A42" s="7"/>
       <c r="B42" s="7" t="s">
         <v>12</v>
@@ -1967,21 +1729,21 @@
       </c>
       <c r="D42" s="7"/>
     </row>
-    <row r="43" ht="19" customHeight="1" spans="1:4">
+    <row r="43" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
     </row>
     <row r="44" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
-      <c r="A44" s="20" t="s">
+      <c r="A44" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="B44" s="21"/>
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
-    </row>
-    <row r="45" ht="19" customHeight="1" spans="1:4">
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+    </row>
+    <row r="45" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A45" s="7"/>
       <c r="B45" s="7" t="s">
         <v>54</v>
@@ -1991,7 +1753,7 @@
       </c>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" ht="19" customHeight="1" spans="1:4">
+    <row r="46" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A46" s="7"/>
       <c r="B46" s="7" t="s">
         <v>56</v>
@@ -2001,7 +1763,7 @@
       </c>
       <c r="D46" s="7"/>
     </row>
-    <row r="47" ht="19" customHeight="1" spans="1:4">
+    <row r="47" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A47" s="7"/>
       <c r="B47" s="7" t="s">
         <v>58</v>
@@ -2011,7 +1773,7 @@
       </c>
       <c r="D47" s="7"/>
     </row>
-    <row r="48" ht="19" customHeight="1" spans="1:4">
+    <row r="48" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A48" s="7"/>
       <c r="B48" s="7" t="s">
         <v>60</v>
@@ -2021,13 +1783,13 @@
       </c>
       <c r="D48" s="7"/>
     </row>
-    <row r="49" ht="19" customHeight="1" spans="1:4">
+    <row r="49" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
     </row>
-    <row r="50" ht="19" customHeight="1" spans="1:4">
+    <row r="50" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A50" s="7" t="s">
         <v>62</v>
       </c>
@@ -2035,7 +1797,7 @@
       <c r="C50" s="7"/>
       <c r="D50" s="7"/>
     </row>
-    <row r="51" ht="19" customHeight="1" spans="1:4">
+    <row r="51" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A51" s="7"/>
       <c r="B51" s="7" t="s">
         <v>63</v>
@@ -2045,7 +1807,7 @@
       </c>
       <c r="D51" s="7"/>
     </row>
-    <row r="52" ht="19" customHeight="1" spans="1:4">
+    <row r="52" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A52" s="7"/>
       <c r="B52" s="7" t="s">
         <v>64</v>
@@ -2055,13 +1817,13 @@
       </c>
       <c r="D52" s="7"/>
     </row>
-    <row r="53" ht="19" customHeight="1" spans="1:4">
+    <row r="53" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
       <c r="D53" s="7"/>
     </row>
-    <row r="54" ht="19" customHeight="1" spans="1:4">
+    <row r="54" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A54" s="7" t="s">
         <v>65</v>
       </c>
@@ -2069,7 +1831,7 @@
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
     </row>
-    <row r="55" ht="19" customHeight="1" spans="1:4">
+    <row r="55" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A55" s="7"/>
       <c r="B55" s="7" t="s">
         <v>66</v>
@@ -2079,7 +1841,7 @@
       </c>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" ht="19" customHeight="1" spans="1:4">
+    <row r="56" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A56" s="7"/>
       <c r="B56" s="7" t="s">
         <v>67</v>
@@ -2089,23 +1851,23 @@
       </c>
       <c r="D56" s="7"/>
     </row>
-    <row r="57" ht="19" customHeight="1" spans="1:4">
+    <row r="57" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
       <c r="D57" s="7"/>
     </row>
-    <row r="58" ht="20" customHeight="1" spans="1:4">
+    <row r="58" s="1" customFormat="1" ht="20" customHeight="1" spans="1:4">
       <c r="A58" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
-      <c r="D58" s="12" t="s">
+      <c r="D58" s="11" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="59" ht="19" customHeight="1" spans="1:4">
+    <row r="59" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A59" s="7"/>
       <c r="B59" s="7" t="s">
         <v>70</v>
@@ -2115,7 +1877,7 @@
       </c>
       <c r="D59" s="7"/>
     </row>
-    <row r="60" ht="19" customHeight="1" spans="1:4">
+    <row r="60" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A60" s="7"/>
       <c r="B60" s="7" t="s">
         <v>72</v>
@@ -2125,7 +1887,7 @@
       </c>
       <c r="D60" s="7"/>
     </row>
-    <row r="61" ht="19" customHeight="1" spans="1:4">
+    <row r="61" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A61" s="7"/>
       <c r="B61" s="7" t="s">
         <v>73</v>
@@ -2135,7 +1897,7 @@
       </c>
       <c r="D61" s="7"/>
     </row>
-    <row r="62" ht="19" customHeight="1" spans="1:4">
+    <row r="62" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A62" s="7"/>
       <c r="B62" s="7" t="s">
         <v>74</v>
@@ -2145,7 +1907,7 @@
       </c>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" ht="19" customHeight="1" spans="1:4">
+    <row r="63" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A63" s="7"/>
       <c r="B63" s="7" t="s">
         <v>75</v>
@@ -2155,7 +1917,7 @@
       </c>
       <c r="D63" s="7"/>
     </row>
-    <row r="64" ht="19" customHeight="1" spans="1:4">
+    <row r="64" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A64" s="7"/>
       <c r="B64" s="7" t="s">
         <v>76</v>
@@ -2165,7 +1927,7 @@
       </c>
       <c r="D64" s="7"/>
     </row>
-    <row r="65" ht="19" customHeight="1" spans="1:4">
+    <row r="65" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A65" s="7"/>
       <c r="B65" s="7" t="s">
         <v>78</v>
@@ -2175,7 +1937,7 @@
       </c>
       <c r="D65" s="7"/>
     </row>
-    <row r="66" ht="19" customHeight="1" spans="1:4">
+    <row r="66" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A66" s="7"/>
       <c r="B66" s="7" t="s">
         <v>80</v>
@@ -2185,399 +1947,25 @@
       </c>
       <c r="D66" s="7"/>
     </row>
-    <row r="67" ht="19" customHeight="1" spans="1:4">
+    <row r="67" s="1" customFormat="1" ht="19" customHeight="1" spans="1:4">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
     </row>
-    <row r="68" ht="30" customHeight="1" spans="1:4">
-      <c r="A68" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="B68" s="22"/>
-      <c r="C68" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="D68" s="12"/>
-    </row>
-    <row r="69" ht="23" customHeight="1"/>
-    <row r="70" customFormat="1" ht="40" customHeight="1" spans="1:4">
-      <c r="A70" s="23" t="s">
-        <v>84</v>
-      </c>
-      <c r="B70" s="23"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-    </row>
+    <row r="68" s="1" customFormat="1" ht="30" customHeight="1"/>
+    <row r="69" s="1" customFormat="1" ht="23" customHeight="1"/>
+    <row r="70" s="1" customFormat="1" ht="40" customHeight="1"/>
     <row r="71" s="2" customFormat="1" spans="1:4">
-      <c r="A71" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="B71" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="C71" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="D71" s="19" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="72" customFormat="1" spans="1:4">
-      <c r="A72" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="C72" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="D72" s="13" t="str">
-        <f t="shared" ref="D72:D80" si="0">LEFT(B77,FIND("-",B77)-1)</f>
-        <v>204000</v>
-      </c>
-    </row>
-    <row r="73" customFormat="1" spans="1:4">
-      <c r="A73" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B73" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C73" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="D73" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>184000</v>
-      </c>
-    </row>
-    <row r="74" customFormat="1" spans="1:4">
-      <c r="A74" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B74" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="C74" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D74" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>164000</v>
-      </c>
-    </row>
-    <row r="75" customFormat="1" spans="1:4">
-      <c r="A75" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B75" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="C75" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="D75" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>144000</v>
-      </c>
-    </row>
-    <row r="76" customFormat="1" spans="1:4">
-      <c r="A76" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="B76" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C76" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="D76" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>124000</v>
-      </c>
-    </row>
-    <row r="77" customFormat="1" spans="1:4">
-      <c r="A77" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="B77" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C77" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="D77" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>109000</v>
-      </c>
-    </row>
-    <row r="78" customFormat="1" spans="1:4">
-      <c r="A78" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B78" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="C78" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D78" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>94000</v>
-      </c>
-    </row>
-    <row r="79" customFormat="1" spans="1:4">
-      <c r="A79" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B79" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C79" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="D79" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>79000</v>
-      </c>
-    </row>
-    <row r="80" customFormat="1" spans="1:4">
-      <c r="A80" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="C80" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D80" s="13" t="str">
-        <f t="shared" si="0"/>
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="81" customFormat="1" spans="1:4">
-      <c r="A81" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="C81" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="D81" s="13" t="str">
-        <f>LEFT(B85,FIND("-",B85)-1)</f>
-        <v>64000</v>
-      </c>
-    </row>
-    <row r="82" customFormat="1" spans="1:4">
-      <c r="A82" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="C82" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="D82" s="13" t="str">
-        <f>LEFT(B86,FIND("-",B86)-1)</f>
-        <v>54000</v>
-      </c>
-    </row>
-    <row r="83" customFormat="1" spans="1:4">
-      <c r="A83" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B83" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="C83" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D83" s="25">
-        <v>44000</v>
-      </c>
-    </row>
-    <row r="84" customFormat="1" spans="1:4">
-      <c r="A84" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="B84" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="C84" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="D84" s="25">
-        <v>34000</v>
-      </c>
-    </row>
-    <row r="85" customFormat="1" spans="1:4">
-      <c r="A85" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="B85" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="C85" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="D85" s="25">
-        <v>24000</v>
-      </c>
-    </row>
-    <row r="86" customFormat="1" spans="1:4">
-      <c r="A86" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="B86" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="C86" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D86" s="25">
-        <v>19000</v>
-      </c>
-    </row>
-    <row r="87" customFormat="1" spans="1:4">
-      <c r="A87" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="B87" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="C87" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="D87" s="25">
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="88" customFormat="1" spans="1:4">
-      <c r="A88" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="B88" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="C88" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D88" s="25">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="89" customFormat="1" spans="1:4">
-      <c r="A89" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="C89" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="D89" s="25">
-        <v>9000</v>
-      </c>
-    </row>
-    <row r="90" customFormat="1" spans="1:4">
-      <c r="A90" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="B90" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="C90" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D90" s="25">
-        <v>7000</v>
-      </c>
-    </row>
-    <row r="91" customFormat="1" spans="1:4">
-      <c r="A91" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="B91" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="C91" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D91" s="25">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="92" customFormat="1" spans="1:4">
-      <c r="A92" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="C92" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D92" s="25">
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="93" customFormat="1" spans="1:4">
-      <c r="A93" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C93" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="D93" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="94" customFormat="1" spans="1:4">
-      <c r="A94" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="B94" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="C94" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D94" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="95" customFormat="1" spans="1:4">
-      <c r="A95" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="B95" s="25" t="s">
-        <v>137</v>
-      </c>
-      <c r="C95" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D95" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="96" customFormat="1" spans="2:2">
-      <c r="B96" s="26"/>
+      <c r="A71" s="1"/>
+      <c r="B71" s="1"/>
+      <c r="C71" s="1"/>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="96" s="1" customFormat="1" spans="2:2">
+      <c r="B96" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A70:D70"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
